--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34674C6-4FD5-4F5D-9F7B-CE1F364CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ACEA8F-68A4-4A4E-B52F-1A918A80C07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -380,21 +380,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">設置物座標データ要求プロトコル </t>
-    <rPh sb="0" eb="3">
-      <t>セッチブツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー座標プロトコル</t>
     <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー座標送信</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float 現在位置 x座標</t>
+    <rPh sb="6" eb="10">
+      <t>ゲンザイイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float 現在位置 y座標</t>
+    <rPh sb="6" eb="10">
+      <t>ゲンザイイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1191,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1290,7 +1307,7 @@
       </c>
       <c r="B5" s="17" t="str">
         <f>'from client'!$B$12</f>
-        <v xml:space="preserve">設置物座標データ要求プロトコル </v>
+        <v>プレイヤー座標送信</v>
       </c>
       <c r="C5" s="16" t="str">
         <f>'from server'!$B$2</f>
@@ -1343,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1664,7 +1681,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1722,7 +1739,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="10" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1742,7 +1759,7 @@
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2156,7 +2173,7 @@
         <v>42</v>
       </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52ACEA8F-68A4-4A4E-B52F-1A918A80C07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34674C6-4FD5-4F5D-9F7B-CE1F364CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -380,38 +380,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">設置物座標データ要求プロトコル </t>
+    <rPh sb="0" eb="3">
+      <t>セッチブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>プレイヤー座標プロトコル</t>
     <rPh sb="5" eb="7">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー座標送信</t>
-    <rPh sb="5" eb="7">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>float 現在位置 x座標</t>
-    <rPh sb="6" eb="10">
-      <t>ゲンザイイチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>float 現在位置 y座標</t>
-    <rPh sb="6" eb="10">
-      <t>ゲンザイイチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
       <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1208,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1307,7 +1290,7 @@
       </c>
       <c r="B5" s="17" t="str">
         <f>'from client'!$B$12</f>
-        <v>プレイヤー座標送信</v>
+        <v xml:space="preserve">設置物座標データ要求プロトコル </v>
       </c>
       <c r="C5" s="16" t="str">
         <f>'from server'!$B$2</f>
@@ -1360,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1681,7 +1664,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1739,7 +1722,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="10" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
@@ -1759,7 +1742,7 @@
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2173,7 +2156,7 @@
         <v>42</v>
       </c>
       <c r="AL2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization\industrialization\Server\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34674C6-4FD5-4F5D-9F7B-CE1F364CDAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DDE02D-8BE5-45AD-BC9D-E7F6E30E058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -380,21 +380,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">設置物座標データ要求プロトコル </t>
-    <rPh sb="0" eb="3">
-      <t>セッチブツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー座標プロトコル</t>
     <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー現在位置送信</t>
+    <rPh sb="5" eb="9">
+      <t>ゲンザイイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float プレイヤーX座標</t>
+    <rPh sb="11" eb="13">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float プレイヤーY座標</t>
+    <rPh sb="12" eb="14">
       <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1192,7 +1203,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1290,11 +1301,10 @@
       </c>
       <c r="B5" s="17" t="str">
         <f>'from client'!$B$12</f>
-        <v xml:space="preserve">設置物座標データ要求プロトコル </v>
-      </c>
-      <c r="C5" s="16" t="str">
-        <f>'from server'!$B$2</f>
-        <v>ブロックデータプロトコル</v>
+        <v>プレイヤー現在位置送信</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>46</v>
@@ -1327,7 +1337,6 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B5" location="'from client'!B12" display="'from client'!B12" xr:uid="{51F17DA9-6DA6-4148-9115-B16C8B95D958}"/>
-    <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{318384C1-42A0-4FF9-8B08-3CE1C6EEB0BA}"/>
     <hyperlink ref="B4" location="'from client'!B2" display="'from client'!B2" xr:uid="{228955C9-E861-4379-A689-46A9EBF9CA45}"/>
     <hyperlink ref="F4" location="'from server'!B2" display="'from server'!B2" xr:uid="{C1000F20-A4C3-48C4-B53F-7859250815F7}"/>
     <hyperlink ref="B6" location="'from client'!B17" display="インベントリ内容要求プロトコル" xr:uid="{DB03F1C7-1043-4976-9122-25A9DAB66FE5}"/>
@@ -1343,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1664,7 +1673,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1712,7 +1721,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1721,9 +1730,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
@@ -1731,18 +1738,20 @@
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="11"/>
+      <c r="Z14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="18"/>
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
-        <v>7</v>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1751,7 +1760,15 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="R15" s="10"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -1777,14 +1794,14 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
@@ -2156,7 +2173,7 @@
         <v>42</v>
       </c>
       <c r="AL2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DDE02D-8BE5-45AD-BC9D-E7F6E30E058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33771796-2C46-4AD1-8EA9-0E1AC7E2951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -85,72 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int 要求するチャンクX座標</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 要求するチャンクY座標</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パディング</t>
-  </si>
-  <si>
-    <t>int 設置物データの数</t>
-    <rPh sb="4" eb="7">
-      <t>セッチブツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下繰り返し</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 設置物のX座標</t>
-    <rPh sb="4" eb="6">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 設置物のY座標</t>
-    <rPh sb="4" eb="6">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -317,10 +251,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックデータプロトコル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>float プレイヤーのx座標</t>
     <rPh sb="13" eb="15">
       <t>ザヒョウ</t>
@@ -365,14 +295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int 設置物のY座標</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int 設置物ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1チャンク16ブロック(4x4)としてデータを送信する</t>
     <rPh sb="23" eb="25">
       <t>ソウシン</t>
@@ -408,6 +330,93 @@
     <rPh sb="12" eb="14">
       <t>ザヒョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int X座標</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int Y座標</t>
+    <rPh sb="5" eb="7">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンクサイズ 14ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ これ以降ブロックデータ</t>
+    <rPh sb="4" eb="6">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte 整数</t>
+    <rPh sb="5" eb="7">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓空気ブロックかどうか　空気なら0</t>
+    <rPh sb="1" eb="3">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックIDがどの整数型か表す</t>
+    <rPh sb="9" eb="11">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 整数</t>
+    <rPh sb="6" eb="8">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 整数</t>
+    <rPh sb="4" eb="6">
+      <t>セイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックデータの表し方</t>
+    <rPh sb="8" eb="9">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンクデータプロトコル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -464,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -577,43 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -627,14 +599,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -642,130 +625,21 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -779,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,22 +693,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -846,43 +711,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1218,36 +1059,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1255,64 +1096,64 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="13" t="str">
         <f>'from client'!$B$2</f>
         <v>機械設置時のプロトコル</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" s="13" t="str">
         <f>'from server'!$B$2</f>
-        <v>ブロックデータプロトコル</v>
+        <v>チャンクデータプロトコル</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="str">
+      <c r="B5" s="14" t="str">
         <f>'from client'!$B$12</f>
         <v>プレイヤー現在位置送信</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="13" t="str">
         <f>'from server'!$AL$2</f>
         <v>プレイヤー座標プロトコル</v>
       </c>
@@ -1321,11 +1162,11 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="13" t="str">
         <f>'from client'!$B$17</f>
         <v>インベントリ内容要求プロトコル</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <f>'from server'!$B$15</f>
         <v>0</v>
       </c>
@@ -1353,7 +1194,7 @@
   <dimension ref="A2:AH25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1368,7 +1209,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -1414,9 +1255,9 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="19"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1442,7 +1283,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="18"/>
+      <c r="Y4" s="15"/>
       <c r="Z4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1296,7 @@
       <c r="AG4" s="11"/>
     </row>
     <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="19"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1494,9 +1335,9 @@
       <c r="AG5" s="11"/>
     </row>
     <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1514,7 +1355,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1530,10 +1371,10 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="18"/>
+      <c r="AG6" s="15"/>
     </row>
     <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1568,7 +1409,7 @@
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1603,7 +1444,7 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1673,7 +1514,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1711,7 +1552,7 @@
     </row>
     <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1721,7 +1562,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1739,7 +1580,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -1747,11 +1588,11 @@
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
-      <c r="AG14" s="18"/>
+      <c r="AG14" s="15"/>
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1822,7 +1663,7 @@
     </row>
     <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1904,7 +1745,7 @@
     </row>
     <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1912,9 +1753,9 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1930,7 +1771,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="18"/>
+      <c r="Y19" s="15"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2159,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2170,10 +2011,13 @@
   <sheetData>
     <row r="2" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
       </c>
       <c r="AL2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2266,7 +2110,7 @@
     </row>
     <row r="4" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2276,7 +2120,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2286,15 +2130,15 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="6" t="s">
-        <v>8</v>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2304,7 +2148,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
       <c r="AL4" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
@@ -2314,7 +2158,7 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
@@ -2332,7 +2176,7 @@
       <c r="BH4" s="7"/>
       <c r="BI4" s="7"/>
       <c r="BJ4" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -2340,37 +2184,29 @@
       <c r="BN4" s="7"/>
       <c r="BO4" s="7"/>
       <c r="BP4" s="7"/>
-      <c r="BQ4" s="18"/>
-    </row>
-    <row r="5" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+      <c r="BQ4" s="15"/>
+    </row>
+    <row r="5" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="15"/>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
@@ -2378,9 +2214,9 @@
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
-      <c r="AG5" s="11"/>
+      <c r="AG5" s="9"/>
       <c r="AL5" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -2388,293 +2224,272 @@
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
-      <c r="AS5" s="18"/>
+      <c r="AS5" s="15"/>
       <c r="AT5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="30"/>
-    </row>
-    <row r="7" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+    </row>
+    <row r="7" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+    </row>
+    <row r="8" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+    </row>
+    <row r="9" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="33"/>
-    </row>
-    <row r="8" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="24" t="s">
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="25"/>
-    </row>
-    <row r="9" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="30"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="33"/>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:70" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
-      <c r="B11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="21"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:70" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="26"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
@@ -2855,9 +2670,9 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2951,11 +2766,11 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
-      <c r="AG19" s="18"/>
+      <c r="AG19" s="15"/>
     </row>
     <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2971,7 +2786,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="18"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="6" t="s">
         <v>1</v>
       </c>
@@ -2989,11 +2804,11 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
       <c r="AF20" s="7"/>
-      <c r="AG20" s="18"/>
+      <c r="AG20" s="15"/>
     </row>
     <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3009,9 +2824,9 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -3027,11 +2842,11 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
-      <c r="AG21" s="18"/>
+      <c r="AG21" s="15"/>
     </row>
     <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3047,9 +2862,9 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="18"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -3065,11 +2880,11 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
-      <c r="AG22" s="18"/>
+      <c r="AG22" s="15"/>
     </row>
     <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3085,9 +2900,9 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -3103,16 +2918,16 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
-      <c r="AG23" s="18"/>
+      <c r="AG23" s="15"/>
     </row>
     <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="20" t="s">
-        <v>29</v>
+      <c r="B24" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -3128,9 +2943,9 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -3146,11 +2961,11 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
-      <c r="AG25" s="18"/>
+      <c r="AG25" s="15"/>
     </row>
     <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -3166,9 +2981,9 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="18"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -3184,11 +2999,11 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
-      <c r="AG26" s="18"/>
+      <c r="AG26" s="15"/>
     </row>
     <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3204,9 +3019,9 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -3222,11 +3037,11 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
-      <c r="AG27" s="18"/>
+      <c r="AG27" s="15"/>
     </row>
     <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="21" t="s">
-        <v>29</v>
+      <c r="B28" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33771796-2C46-4AD1-8EA9-0E1AC7E2951B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C9B17-35C3-4697-8BE9-BF60A6E9B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -269,32 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの座標と周辺のブロックの両方を返す</t>
-    <rPh sb="6" eb="8">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウヘン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string これ以降プレイヤー名</t>
-    <rPh sb="9" eb="11">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1チャンク16ブロック(4x4)としてデータを送信する</t>
     <rPh sb="23" eb="25">
       <t>ソウシン</t>
@@ -319,20 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>float プレイヤーX座標</t>
-    <rPh sb="11" eb="13">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>float プレイヤーY座標</t>
-    <rPh sb="12" eb="14">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int X座標</t>
     <rPh sb="5" eb="7">
       <t>ザヒョウ</t>
@@ -417,6 +377,42 @@
   </si>
   <si>
     <t>チャンクデータプロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string プレイヤー名</t>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short プレイヤー名文字数</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし前の位置と比較して返すか判定する</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1043,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1133,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1144,11 +1140,12 @@
         <f>'from client'!$B$12</f>
         <v>プレイヤー現在位置送信</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5" s="13" t="str">
+        <f>'from server'!$B$2</f>
+        <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1183,6 +1180,7 @@
     <hyperlink ref="B6" location="'from client'!B17" display="インベントリ内容要求プロトコル" xr:uid="{DB03F1C7-1043-4976-9122-25A9DAB66FE5}"/>
     <hyperlink ref="C6" location="'from server'!B15" display="'from server'!B15" xr:uid="{842CBFA6-B10D-4CD2-86F6-841771E24EB3}"/>
     <hyperlink ref="F5" location="'from server'!AL2" display="'from server'!AL2" xr:uid="{5EC24091-1300-46A2-B03C-9217F41235DD}"/>
+    <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{0A2EC12F-B1CB-408E-B324-700132DA656E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1193,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1514,7 +1512,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1562,7 +1560,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1571,16 +1569,16 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -1592,39 +1590,28 @@
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
@@ -2000,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2011,13 +1998,13 @@
   <sheetData>
     <row r="2" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AL2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2120,7 +2107,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2138,7 +2125,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2188,7 +2175,7 @@
     </row>
     <row r="5" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2198,7 +2185,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -2225,13 +2212,23 @@
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
       <c r="AS5" s="15"/>
-      <c r="AT5" t="s">
-        <v>39</v>
+      <c r="AT5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="7" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2275,13 +2272,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -2324,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -2372,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -2420,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C9B17-35C3-4697-8BE9-BF60A6E9B3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85A880-BE2E-4E64-80F6-8B7FD9FF8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
-    <sheet name="from client" sheetId="1" r:id="rId2"/>
-    <sheet name="from server" sheetId="3" r:id="rId3"/>
+    <sheet name="constant" sheetId="5" r:id="rId2"/>
+    <sheet name="from client" sheetId="1" r:id="rId3"/>
+    <sheet name="from server" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -413,6 +414,18 @@
     <rPh sb="15" eb="17">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chunk Size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player Visible Range</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100x100block (5 x 5 chunk)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1039,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1188,6 +1201,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C430F4-2B3F-484D-8215-059B4189F9BA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
@@ -1983,12 +2032,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85A880-BE2E-4E64-80F6-8B7FD9FF8F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AC8F5F-0102-4F2C-B6CC-019B01B768B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -308,10 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チャンクサイズ 14ブロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→ これ以降ブロックデータ</t>
     <rPh sb="4" eb="6">
       <t>イコウ</t>
@@ -426,6 +422,16 @@
   </si>
   <si>
     <t>100x100block (5 x 5 chunk)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short プレイヤー名バイト数</t>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1158,7 +1164,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1204,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C430F4-2B3F-484D-8215-059B4189F9BA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1216,7 +1222,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -1224,10 +1230,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1240,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1649,7 +1655,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="15"/>
       <c r="J15" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1659,7 +1665,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="15"/>
       <c r="R15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2036,8 +2042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2047,10 +2053,7 @@
   <sheetData>
     <row r="2" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="s">
         <v>39</v>
@@ -2234,7 +2237,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -2262,7 +2265,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -2272,12 +2275,12 @@
       <c r="AZ5" s="7"/>
       <c r="BA5" s="15"/>
       <c r="BB5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -2292,7 +2295,7 @@
     </row>
     <row r="7" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2321,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -2370,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -2418,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -2466,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AC8F5F-0102-4F2C-B6CC-019B01B768B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2121D01C-C0FC-4DC2-8EEE-551146534AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -425,12 +425,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short プレイヤー名バイト数</t>
-    <rPh sb="11" eb="12">
+    <t>string →プレイヤー名</t>
+    <rPh sb="13" eb="14">
       <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1246,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1623,7 +1620,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -1654,19 +1651,32 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" t="s">
-        <v>52</v>
-      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
     </row>
     <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
@@ -2042,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2121D01C-C0FC-4DC2-8EEE-551146534AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942FC64-9525-4B44-A7C9-3DC7D1BA7EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -384,16 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short プレイヤー名文字数</t>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>モジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ただし前の位置と比較して返すか判定する</t>
     <rPh sb="3" eb="4">
       <t>マエ</t>
@@ -428,6 +418,16 @@
     <t>string →プレイヤー名</t>
     <rPh sb="13" eb="14">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short  文字列長</t>
+    <rPh sb="7" eb="10">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1161,7 +1161,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1219,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AR15" sqref="AR15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1651,17 +1651,19 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
@@ -2052,8 +2054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2275,7 +2277,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\industrialization-server\industrialization\Server\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/industrialization-server/industrialization/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942FC64-9525-4B44-A7C9-3DC7D1BA7EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D693147-D5AC-C746-8A65-9A7C787A5FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -436,7 +436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,17 +1059,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="3" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1211,13 +1211,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1243,22 +1243,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="16" max="16" width="2.25" customWidth="1"/>
-    <col min="34" max="34" width="3.375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1304,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>29</v>
@@ -1345,7 +1341,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1384,7 +1380,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>32</v>
@@ -1423,7 +1419,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1458,7 +1454,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1493,7 +1489,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1528,7 +1524,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1562,12 +1558,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1600,7 +1596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1640,7 +1636,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1676,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1715,7 +1711,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1752,7 +1748,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -1797,7 +1793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1835,7 +1831,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1869,7 +1865,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1903,7 +1899,7 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -1938,7 +1934,7 @@
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1973,7 +1969,7 @@
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2008,7 +2004,7 @@
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2054,16 +2050,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:BR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:70" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>51</v>
       </c>
@@ -2071,7 +2067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:70" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:70" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
@@ -2237,7 +2233,7 @@
       <c r="BP4" s="7"/>
       <c r="BQ4" s="15"/>
     </row>
-    <row r="5" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:70" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
@@ -2290,7 +2286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:70" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
@@ -2305,7 +2301,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
     </row>
-    <row r="7" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:70" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -2331,7 +2327,7 @@
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
     </row>
-    <row r="8" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -2373,7 +2369,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -2421,7 +2417,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -2469,7 +2465,7 @@
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
     </row>
-    <row r="11" spans="1:70" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -2517,7 +2513,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:70" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -2557,7 +2553,7 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:70" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2596,7 +2592,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:70" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2636,7 +2632,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:70" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2675,7 +2671,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:70" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:70" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -2721,7 +2717,7 @@
       </c>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:33" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2755,7 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:33" ht="37.5" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2793,7 +2789,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:33" ht="37.5" customHeight="1">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2829,7 +2825,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:33" ht="37.5" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
@@ -2867,7 +2863,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:33" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -2905,7 +2901,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:33" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
@@ -2943,7 +2939,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:33" ht="37.5" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
@@ -2981,12 +2977,12 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:33" ht="37.5" customHeight="1">
       <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:33" ht="37.5" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
@@ -3024,7 +3020,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:33" ht="37.5" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
@@ -3062,7 +3058,7 @@
       <c r="AF26" s="7"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:33" ht="37.5" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3100,7 +3096,7 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="15"/>
     </row>
-    <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:33" ht="37.5" customHeight="1">
       <c r="B28" s="18" t="s">
         <v>22</v>
       </c>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/industrialization-server/industrialization/Server/Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D693147-D5AC-C746-8A65-9A7C787A5FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A71FF9-CA7A-5947-925B-8A2A71CB1174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -429,6 +429,51 @@
     <rPh sb="10" eb="11">
       <t>ナガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント要求</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も送信しないことを表す</t>
+    <rPh sb="0" eb="1">
+      <t>ナニモ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アラワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント返答</t>
+    <rPh sb="4" eb="6">
+      <t>ヘントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント要求プロトコル</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ユーザーID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1053,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1113,6 +1158,9 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -1185,6 +1233,17 @@
       </c>
       <c r="E6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1241,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH25"/>
+  <dimension ref="A2:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -1900,119 +1959,102 @@
       <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="5">
+        <v>32</v>
+      </c>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
     </row>
     <row r="25" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -2021,7 +2063,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="R25" s="9"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
@@ -2037,7 +2079,40 @@
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
+    </row>
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A71FF9-CA7A-5947-925B-8A2A71CB1174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB4D858-742A-F149-87A0-6FEB0AD9BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -270,13 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1チャンク16ブロック(4x4)としてデータを送信する</t>
-    <rPh sb="23" eb="25">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー座標プロトコル</t>
     <rPh sb="5" eb="7">
       <t>ザヒョウ</t>
@@ -432,13 +425,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント要求</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>何も送信しないことを表す</t>
     <rPh sb="0" eb="1">
       <t>ナニモ</t>
@@ -449,13 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベント返答</t>
-    <rPh sb="4" eb="6">
-      <t>ヘントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベント要求プロトコル</t>
     <rPh sb="0" eb="2">
       <t>キカイ</t>
@@ -474,6 +453,56 @@
   </si>
   <si>
     <t>int ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック設置イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO ここ実装する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント返答プロトコル</t>
+    <rPh sb="4" eb="6">
+      <t>ヘントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1チャンクに置いてあるブロックデータを送信する</t>
+    <rPh sb="6" eb="7">
+      <t>オイテアル</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">short イベントID </t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→これ以降各イベントによってデータが異なる</t>
+    <rPh sb="5" eb="6">
+      <t>カクイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short イベントID  1</t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1101,7 +1130,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1159,7 +1188,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1189,11 +1218,8 @@
         <f>'from server'!$B$2</f>
         <v>チャンクデータプロトコル</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1209,7 +1235,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1231,19 +1257,28 @@
         <f>'from server'!$B$15</f>
         <v>0</v>
       </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
       <c r="E6">
         <v>3</v>
+      </c>
+      <c r="F6" s="13" t="str">
+        <f>'from server'!$BV$2</f>
+        <v>イベント返答プロトコル</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
+      <c r="B7" s="13" t="str">
+        <f>'from client'!$B$22</f>
+        <v>イベント要求プロトコル</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>'from server'!$BV$2</f>
+        <v>イベント返答プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1256,6 +1291,9 @@
     <hyperlink ref="C6" location="'from server'!B15" display="'from server'!B15" xr:uid="{842CBFA6-B10D-4CD2-86F6-841771E24EB3}"/>
     <hyperlink ref="F5" location="'from server'!AL2" display="'from server'!AL2" xr:uid="{5EC24091-1300-46A2-B03C-9217F41235DD}"/>
     <hyperlink ref="C5" location="'from server'!B2" display="'from server'!B2" xr:uid="{0A2EC12F-B1CB-408E-B324-700132DA656E}"/>
+    <hyperlink ref="B7" location="'from client'!B22" display="'from client'!B22" xr:uid="{0E8B99C6-0617-7E40-8382-01003727BF89}"/>
+    <hyperlink ref="C7" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{A3EBFDE4-C1D9-B842-8F68-D78DA865FED4}"/>
+    <hyperlink ref="F6" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{84C7406E-A115-E840-8FC1-A58D116FB63E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1278,7 +1316,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -1286,10 +1324,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1302,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -1619,7 +1657,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1">
@@ -1707,7 +1745,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="15"/>
       <c r="J15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1717,7 +1755,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
@@ -1960,7 +1998,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1">
@@ -2010,7 +2048,7 @@
     </row>
     <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2020,7 +2058,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2123,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="A2:BR28"/>
+  <dimension ref="A2:DB28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BV10" sqref="BV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2134,15 +2172,18 @@
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:70" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" ht="37.5" customHeight="1">
+        <v>38</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2229,8 +2270,48 @@
       <c r="BR3">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:70" ht="37.5" customHeight="1">
+      <c r="BV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="5">
+        <v>32</v>
+      </c>
+      <c r="CM3" s="8"/>
+      <c r="CN3" s="8"/>
+      <c r="CO3" s="8"/>
+      <c r="CP3" s="8"/>
+      <c r="CQ3" s="8"/>
+      <c r="CR3" s="8"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="5">
+        <v>48</v>
+      </c>
+      <c r="CU3" s="8"/>
+      <c r="CV3" s="8"/>
+      <c r="CW3" s="8"/>
+      <c r="CX3" s="8"/>
+      <c r="CY3" s="8"/>
+      <c r="CZ3" s="8"/>
+      <c r="DA3" s="4"/>
+    </row>
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
@@ -2242,7 +2323,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2260,7 +2341,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2307,10 +2388,49 @@
       <c r="BO4" s="7"/>
       <c r="BP4" s="7"/>
       <c r="BQ4" s="15"/>
-    </row>
-    <row r="5" spans="1:70" ht="37.5" customHeight="1">
+      <c r="BV4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="CM4" s="9"/>
+      <c r="CN4" s="9"/>
+      <c r="CO4" s="9"/>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="9"/>
+      <c r="CR4" s="9"/>
+      <c r="CS4" s="9"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="9"/>
+      <c r="CW4" s="9"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="8"/>
+    </row>
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2320,7 +2440,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -2348,7 +2468,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="15"/>
       <c r="AT5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -2358,12 +2478,45 @@
       <c r="AZ5" s="7"/>
       <c r="BA5" s="15"/>
       <c r="BB5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" ht="37.5" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="8"/>
+      <c r="CM5" s="8"/>
+      <c r="CN5" s="8"/>
+      <c r="CO5" s="8"/>
+      <c r="CP5" s="8"/>
+      <c r="CQ5" s="8"/>
+      <c r="CR5" s="8"/>
+      <c r="CS5" s="8"/>
+      <c r="CT5" s="8"/>
+      <c r="CU5" s="8"/>
+      <c r="CV5" s="8"/>
+      <c r="CW5" s="8"/>
+      <c r="CX5" s="8"/>
+      <c r="CY5" s="8"/>
+      <c r="CZ5" s="8"/>
+      <c r="DA5" s="8"/>
+      <c r="DB5" s="8"/>
+    </row>
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -2375,10 +2528,13 @@
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
-    </row>
-    <row r="7" spans="1:70" ht="37.5" customHeight="1">
+      <c r="BV6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2401,19 +2557,59 @@
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
-    </row>
-    <row r="8" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
+      <c r="BV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="5">
+        <v>32</v>
+      </c>
+      <c r="CM7" s="8"/>
+      <c r="CN7" s="8"/>
+      <c r="CO7" s="8"/>
+      <c r="CP7" s="8"/>
+      <c r="CQ7" s="8"/>
+      <c r="CR7" s="8"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="5">
+        <v>48</v>
+      </c>
+      <c r="CU7" s="8"/>
+      <c r="CV7" s="8"/>
+      <c r="CW7" s="8"/>
+      <c r="CX7" s="8"/>
+      <c r="CY7" s="8"/>
+      <c r="CZ7" s="8"/>
+      <c r="DA7" s="4"/>
+    </row>
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
@@ -2443,8 +2639,46 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
-    </row>
-    <row r="9" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
+      <c r="BV8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW8" s="7"/>
+      <c r="BX8" s="7"/>
+      <c r="BY8" s="7"/>
+      <c r="BZ8" s="7"/>
+      <c r="CA8" s="7"/>
+      <c r="CB8" s="7"/>
+      <c r="CC8" s="7"/>
+      <c r="CD8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE8" s="7"/>
+      <c r="CF8" s="7"/>
+      <c r="CG8" s="7"/>
+      <c r="CH8" s="7"/>
+      <c r="CI8" s="7"/>
+      <c r="CJ8" s="7"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="CM8" s="7"/>
+      <c r="CN8" s="7"/>
+      <c r="CO8" s="7"/>
+      <c r="CP8" s="7"/>
+      <c r="CQ8" s="7"/>
+      <c r="CR8" s="7"/>
+      <c r="CS8" s="7"/>
+      <c r="CT8" s="7"/>
+      <c r="CU8" s="7"/>
+      <c r="CV8" s="7"/>
+      <c r="CW8" s="7"/>
+      <c r="CX8" s="7"/>
+      <c r="CY8" s="7"/>
+      <c r="CZ8" s="7"/>
+      <c r="DA8" s="15"/>
+    </row>
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -2456,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -2491,8 +2725,44 @@
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
-    </row>
-    <row r="10" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
+      <c r="BV9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BW9" s="7"/>
+      <c r="BX9" s="7"/>
+      <c r="BY9" s="7"/>
+      <c r="BZ9" s="7"/>
+      <c r="CA9" s="7"/>
+      <c r="CB9" s="7"/>
+      <c r="CC9" s="7"/>
+      <c r="CD9" s="7"/>
+      <c r="CE9" s="7"/>
+      <c r="CF9" s="7"/>
+      <c r="CG9" s="7"/>
+      <c r="CH9" s="7"/>
+      <c r="CI9" s="7"/>
+      <c r="CJ9" s="7"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CM9" s="7"/>
+      <c r="CN9" s="7"/>
+      <c r="CO9" s="7"/>
+      <c r="CP9" s="7"/>
+      <c r="CQ9" s="7"/>
+      <c r="CR9" s="7"/>
+      <c r="CS9" s="7"/>
+      <c r="CT9" s="7"/>
+      <c r="CU9" s="7"/>
+      <c r="CV9" s="7"/>
+      <c r="CW9" s="7"/>
+      <c r="CX9" s="7"/>
+      <c r="CY9" s="7"/>
+      <c r="CZ9" s="7"/>
+      <c r="DA9" s="15"/>
+    </row>
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -2504,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -2539,8 +2809,24 @@
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="8"/>
-    </row>
-    <row r="11" spans="1:70" ht="37.5" customHeight="1" thickBot="1">
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="9"/>
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
+      <c r="CG10" s="9"/>
+      <c r="CH10" s="9"/>
+      <c r="CI10" s="9"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+    </row>
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -2552,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -2588,7 +2874,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:70" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -2628,7 +2914,7 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:70" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2667,7 +2953,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:70" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2707,7 +2993,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:70" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2746,7 +3032,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:70" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/moorestech/Server/Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB4D858-742A-F149-87A0-6FEB0AD9BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F6543A-735D-A942-B356-BCC8FFDD2351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="from server" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -482,7 +483,7 @@
   </si>
   <si>
     <t xml:space="preserve">short イベントID </t>
-    <rPh sb="13" eb="14">
+    <rPh sb="0" eb="13">
       <t>ザヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1130,7 +1131,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1340,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2163,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BV10" sqref="BV10"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83F6543A-735D-A942-B356-BCC8FFDD2351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6237BF2-059B-B141-9551-41D7220A8B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="from server" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -371,13 +370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>string プレイヤー名</t>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ただし前の位置と比較して返すか判定する</t>
     <rPh sb="3" eb="4">
       <t>マエ</t>
@@ -409,23 +401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>string →プレイヤー名</t>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>short  文字列長</t>
-    <rPh sb="7" eb="10">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>何も送信しないことを表す</t>
     <rPh sb="0" eb="1">
       <t>ナニモ</t>
@@ -504,6 +479,10 @@
   </si>
   <si>
     <t>int ブロックID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int プレイヤーID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1189,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1220,7 +1199,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1236,7 +1215,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1259,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1317,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -1325,10 +1304,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1341,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -1705,24 +1684,24 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
       <c r="Z14" s="6" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1723,9 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1755,16 +1734,14 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="15"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1999,7 +1976,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1">
@@ -2049,7 +2026,7 @@
     </row>
     <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2059,7 +2036,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2164,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2181,7 +2158,7 @@
         <v>38</v>
       </c>
       <c r="BV2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:106" ht="37.5" customHeight="1">
@@ -2361,24 +2338,24 @@
       <c r="AQ4" s="7"/>
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
-      <c r="AT4" s="6" t="s">
+      <c r="AT4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
       <c r="BJ4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2400,7 +2377,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="CE4" s="7"/>
       <c r="CF4" s="7"/>
@@ -2410,7 +2387,7 @@
       <c r="CJ4" s="7"/>
       <c r="CK4" s="15"/>
       <c r="CL4" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
@@ -2467,9 +2444,9 @@
       <c r="AP5" s="7"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
-      <c r="AS5" s="15"/>
+      <c r="AS5" s="7"/>
       <c r="AT5" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -2477,10 +2454,15 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" t="s">
-        <v>51</v>
-      </c>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="15"/>
       <c r="BV5" s="9"/>
       <c r="BW5" s="9"/>
       <c r="BX5" s="9"/>
@@ -2530,7 +2512,7 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="BV6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:106" ht="37.5" customHeight="1">
@@ -2651,7 +2633,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
@@ -2745,7 +2727,7 @@
       <c r="CJ9" s="7"/>
       <c r="CK9" s="15"/>
       <c r="CL9" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6237BF2-059B-B141-9551-41D7220A8B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E473D-1953-489F-A125-FCC0473CB166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -483,6 +483,21 @@
   </si>
   <si>
     <t>int プレイヤーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標サイズ 1</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1m</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -490,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,23 +1122,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1180,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1225,7 +1240,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1259,6 +1274,11 @@
       <c r="C7" s="13" t="str">
         <f>'from server'!$BV$2</f>
         <v>イベント返答プロトコル</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1282,19 +1302,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C430F4-2B3F-484D-8215-059B4189F9BA}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1302,12 +1322,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1320,18 +1348,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1377,7 +1405,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>29</v>
@@ -1418,7 +1446,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1457,7 +1485,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>32</v>
@@ -1496,7 +1524,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1531,7 +1559,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1566,7 +1594,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1601,7 +1629,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1635,12 +1663,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1673,7 +1701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1713,7 +1741,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
@@ -1751,7 +1779,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1786,7 +1814,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>13</v>
       </c>
@@ -1823,7 +1851,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -1868,7 +1896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1906,7 +1934,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1940,7 +1968,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1974,12 +2002,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2024,7 +2052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
@@ -2062,7 +2090,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2096,7 +2124,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2145,12 +2173,12 @@
       <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2289,7 +2317,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
@@ -2406,7 +2434,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
@@ -2497,7 +2525,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>49</v>
       </c>
@@ -2515,7 +2543,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2609,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -2661,7 +2689,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -2745,7 +2773,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -2809,7 +2837,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -2857,7 +2885,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -2897,7 +2925,7 @@
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2936,7 +2964,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2976,7 +3004,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3015,7 +3043,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -3061,7 +3089,7 @@
       </c>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="2:33" ht="37.5" customHeight="1">
+    <row r="17" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +3127,7 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="11"/>
     </row>
-    <row r="18" spans="2:33" ht="37.5" customHeight="1">
+    <row r="18" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -3133,7 +3161,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="2:33" ht="37.5" customHeight="1">
+    <row r="19" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3169,7 +3197,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="2:33" ht="37.5" customHeight="1">
+    <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
@@ -3207,7 +3235,7 @@
       <c r="AF20" s="7"/>
       <c r="AG20" s="15"/>
     </row>
-    <row r="21" spans="2:33" ht="37.5" customHeight="1">
+    <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -3245,7 +3273,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:33" ht="37.5" customHeight="1">
+    <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
@@ -3283,7 +3311,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="2:33" ht="37.5" customHeight="1">
+    <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
@@ -3321,12 +3349,12 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="15"/>
     </row>
-    <row r="24" spans="2:33" ht="37.5" customHeight="1">
+    <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:33" ht="37.5" customHeight="1">
+    <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
@@ -3364,7 +3392,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="2:33" ht="37.5" customHeight="1">
+    <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
@@ -3402,7 +3430,7 @@
       <c r="AF26" s="7"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="2:33" ht="37.5" customHeight="1">
+    <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
@@ -3440,7 +3468,7 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="15"/>
     </row>
-    <row r="28" spans="2:33" ht="37.5" customHeight="1">
+    <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="18" t="s">
         <v>22</v>
       </c>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088E473D-1953-489F-A125-FCC0473CB166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FF9BD-A5A5-46F9-BB47-C9CF6A033725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-21090" yWindow="1350" windowWidth="14385" windowHeight="14955" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -471,13 +471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short イベントID  1</t>
-    <rPh sb="13" eb="14">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int ブロックID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -498,6 +491,13 @@
   </si>
   <si>
     <t>1m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short イベントID  0</t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C430F4-2B3F-484D-8215-059B4189F9BA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1348,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1753,7 +1753,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -2169,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AT5" sqref="AT5"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CM4" sqref="CM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2474,7 +2474,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -2661,7 +2661,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
@@ -2755,7 +2755,7 @@
       <c r="CJ9" s="7"/>
       <c r="CK9" s="15"/>
       <c r="CL9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07FF9BD-A5A5-46F9-BB47-C9CF6A033725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC1B1B-407F-C945-9940-9F277ADD51A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21090" yWindow="1350" windowWidth="14385" windowHeight="14955" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -119,100 +119,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インベントリ内容要求プロトコル</t>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>guid 要求する機械のGUID</t>
-    <rPh sb="5" eb="7">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>float プロセス進行の度合い</t>
-    <rPh sb="10" eb="12">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ドア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int インプットスロット1のアイテムID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int インプットスロット1のアイテム数</t>
-    <rPh sb="19" eb="20">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int インプットスロット2のアイテムID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int インプットスロット2のアイテム数</t>
-    <rPh sb="19" eb="20">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int インプットスロット3のアイテムID</t>
-  </si>
-  <si>
-    <t>int インプットスロット3のアイテム数</t>
-    <rPh sb="19" eb="20">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以下繰り返し</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int アウトプットスロット1のアイテムID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int アウトプットスロット1のアイテム数</t>
-    <rPh sb="20" eb="21">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int アウトプットスロット2のアイテムID</t>
-  </si>
-  <si>
-    <t>int アウトプットスロット2のアイテム数</t>
-    <rPh sb="20" eb="21">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int アウトプットスロット3のアイテムID</t>
-  </si>
-  <si>
-    <t>int アウトプットスロット3のアイテム数</t>
-    <rPh sb="20" eb="21">
-      <t>スウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -242,16 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int 要求する機械のintID</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>float プレイヤーのx座標</t>
     <rPh sb="13" eb="15">
       <t>ザヒョウ</t>
@@ -428,15 +325,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロック設置イベント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO ここ実装する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -497,6 +386,131 @@
     <t>short イベントID  0</t>
     <rPh sb="13" eb="14">
       <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーインベントリ要求プロトコル</t>
+    <rPh sb="11" eb="13">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーインベントリ行</t>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーインベントリ列</t>
+    <rPh sb="11" eb="12">
+      <t>レテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーインベントリ応答プロトコル</t>
+    <rPh sb="11" eb="13">
+      <t>オウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット0のアイテムID</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット0のアイテム数</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット1のアイテムID</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット1のアイテム数</t>
+    <rPh sb="13" eb="14">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット47のアイテムID</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット48のアイテムID</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット47のアイテム数</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int スロット48のアイテム数</t>
+    <rPh sb="14" eb="15">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーインベントリ更新イベント</t>
+    <rPh sb="11" eb="13">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short イベントID  1</t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int インベントリインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int アイテムID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int アイテム数</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -505,7 +519,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,9 +801,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -1124,35 +1135,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="3" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1195,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1214,10 +1225,10 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1229,8 +1240,8 @@
         <f>'from server'!$B$2</f>
         <v>チャンクデータプロトコル</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>51</v>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1240,20 +1251,17 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="str">
         <f>'from client'!$B$17</f>
-        <v>インベントリ内容要求プロトコル</v>
-      </c>
-      <c r="C6" s="13">
+        <v>プレイヤーインベントリ要求プロトコル</v>
+      </c>
+      <c r="C6" s="13" t="str">
         <f>'from server'!$B$15</f>
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>60</v>
+        <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1263,7 +1271,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1276,9 +1284,9 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1302,40 +1310,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C430F4-2B3F-484D-8215-059B4189F9BA}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
+      <c r="B5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1348,18 +1372,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1405,10 +1429,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1446,7 +1470,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1485,10 +1509,10 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1506,7 +1530,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1524,7 +1548,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1559,7 +1583,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1594,7 +1618,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1629,7 +1653,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1663,12 +1687,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1701,9 +1725,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1713,7 +1737,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1731,7 +1755,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -1741,9 +1765,9 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1753,7 +1777,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1779,7 +1803,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1814,9 +1838,9 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>13</v>
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B17" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1851,7 +1875,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -1896,9 +1920,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1908,7 +1932,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1934,7 +1958,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1968,7 +1992,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2002,12 +2026,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2052,9 +2076,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2064,7 +2088,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2090,7 +2114,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2124,7 +2148,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2167,29 +2191,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
-  <dimension ref="A2:DB28"/>
+  <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CM4" sqref="CM4"/>
+    <sheetView tabSelected="1" topLeftCell="BD6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CE13" sqref="CE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="BV2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2317,9 +2341,9 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2329,7 +2353,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2347,7 +2371,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2357,7 +2381,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
       <c r="AL4" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
@@ -2367,7 +2391,7 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
@@ -2385,7 +2409,7 @@
       <c r="BH4" s="9"/>
       <c r="BI4" s="9"/>
       <c r="BJ4" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -2395,7 +2419,7 @@
       <c r="BP4" s="7"/>
       <c r="BQ4" s="15"/>
       <c r="BV4" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BW4" s="7"/>
       <c r="BX4" s="7"/>
@@ -2405,7 +2429,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CE4" s="7"/>
       <c r="CF4" s="7"/>
@@ -2415,7 +2439,7 @@
       <c r="CJ4" s="7"/>
       <c r="CK4" s="15"/>
       <c r="CL4" s="10" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
@@ -2434,9 +2458,9 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2446,7 +2470,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -2464,7 +2488,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AL5" s="6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -2474,7 +2498,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -2525,9 +2549,9 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -2540,12 +2564,12 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="BV6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2609,26 +2633,26 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -2651,7 +2675,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="BV8" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="BW8" s="7"/>
       <c r="BX8" s="7"/>
@@ -2661,7 +2685,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="6" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
@@ -2671,7 +2695,7 @@
       <c r="CJ8" s="7"/>
       <c r="CK8" s="15"/>
       <c r="CL8" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="CM8" s="7"/>
       <c r="CN8" s="7"/>
@@ -2689,7 +2713,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -2700,16 +2724,16 @@
       <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="E9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -2737,7 +2761,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="BV9" s="6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="BW9" s="7"/>
       <c r="BX9" s="7"/>
@@ -2755,7 +2779,7 @@
       <c r="CJ9" s="7"/>
       <c r="CK9" s="15"/>
       <c r="CL9" s="6" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>
@@ -2773,7 +2797,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -2784,24 +2808,24 @@
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="21"/>
+      <c r="E10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="20"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
@@ -2837,7 +2861,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -2848,44 +2872,47 @@
       <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="20"/>
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
-    </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -2924,8 +2951,48 @@
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
       <c r="AL12" s="8"/>
-    </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="1"/>
+      <c r="BX12" s="1"/>
+      <c r="BY12" s="1"/>
+      <c r="BZ12" s="1"/>
+      <c r="CA12" s="1"/>
+      <c r="CB12" s="1"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="1"/>
+      <c r="CG12" s="1"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="5">
+        <v>32</v>
+      </c>
+      <c r="CM12" s="8"/>
+      <c r="CN12" s="8"/>
+      <c r="CO12" s="8"/>
+      <c r="CP12" s="8"/>
+      <c r="CQ12" s="8"/>
+      <c r="CR12" s="8"/>
+      <c r="CS12" s="4"/>
+      <c r="CT12" s="5">
+        <v>48</v>
+      </c>
+      <c r="CU12" s="8"/>
+      <c r="CV12" s="8"/>
+      <c r="CW12" s="8"/>
+      <c r="CX12" s="8"/>
+      <c r="CY12" s="8"/>
+      <c r="CZ12" s="8"/>
+      <c r="DA12" s="4"/>
+    </row>
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2963,8 +3030,46 @@
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
-    </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="7"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="7"/>
+      <c r="CC13" s="7"/>
+      <c r="CD13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="CE13" s="7"/>
+      <c r="CF13" s="7"/>
+      <c r="CG13" s="7"/>
+      <c r="CH13" s="7"/>
+      <c r="CI13" s="7"/>
+      <c r="CJ13" s="7"/>
+      <c r="CK13" s="15"/>
+      <c r="CL13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="CM13" s="7"/>
+      <c r="CN13" s="7"/>
+      <c r="CO13" s="7"/>
+      <c r="CP13" s="7"/>
+      <c r="CQ13" s="7"/>
+      <c r="CR13" s="7"/>
+      <c r="CS13" s="7"/>
+      <c r="CT13" s="7"/>
+      <c r="CU13" s="7"/>
+      <c r="CV13" s="7"/>
+      <c r="CW13" s="7"/>
+      <c r="CX13" s="7"/>
+      <c r="CY13" s="7"/>
+      <c r="CZ13" s="7"/>
+      <c r="DA13" s="15"/>
+    </row>
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3003,9 +3108,48 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
-    </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BW14" s="7"/>
+      <c r="BX14" s="7"/>
+      <c r="BY14" s="7"/>
+      <c r="BZ14" s="7"/>
+      <c r="CA14" s="7"/>
+      <c r="CB14" s="7"/>
+      <c r="CC14" s="7"/>
+      <c r="CD14" s="7"/>
+      <c r="CE14" s="7"/>
+      <c r="CF14" s="7"/>
+      <c r="CG14" s="7"/>
+      <c r="CH14" s="7"/>
+      <c r="CI14" s="7"/>
+      <c r="CJ14" s="7"/>
+      <c r="CK14" s="15"/>
+      <c r="CL14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="CM14" s="7"/>
+      <c r="CN14" s="7"/>
+      <c r="CO14" s="7"/>
+      <c r="CP14" s="7"/>
+      <c r="CQ14" s="7"/>
+      <c r="CR14" s="7"/>
+      <c r="CS14" s="7"/>
+      <c r="CT14" s="7"/>
+      <c r="CU14" s="7"/>
+      <c r="CV14" s="7"/>
+      <c r="CW14" s="7"/>
+      <c r="CX14" s="7"/>
+      <c r="CY14" s="7"/>
+      <c r="CZ14" s="7"/>
+      <c r="DA14" s="15"/>
+    </row>
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3043,7 +3187,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -3089,7 +3233,7 @@
       </c>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:35" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -3100,95 +3244,103 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="11"/>
-    </row>
-    <row r="18" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="4"/>
-    </row>
-    <row r="19" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="6" t="s">
+      <c r="J17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="15"/>
+    </row>
+    <row r="18" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="15"/>
+    </row>
+    <row r="19" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
@@ -3197,47 +3349,45 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="15"/>
-    </row>
-    <row r="21" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+    </row>
+    <row r="21" spans="2:35" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3255,7 +3405,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -3273,9 +3423,9 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:35" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3293,7 +3443,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -3311,167 +3461,293 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="15"/>
-    </row>
-    <row r="24" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="15"/>
-    </row>
-    <row r="26" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="15"/>
-    </row>
-    <row r="27" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="15"/>
-    </row>
-    <row r="28" spans="2:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="18" t="s">
-        <v>22</v>
-      </c>
+    <row r="23" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+    </row>
+    <row r="24" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+    </row>
+    <row r="25" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+    </row>
+    <row r="26" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+    </row>
+    <row r="27" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+    </row>
+    <row r="28" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B28" s="12"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+    </row>
+    <row r="29" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+    </row>
+    <row r="30" spans="2:35" ht="37.5" customHeight="1">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC1B1B-407F-C945-9940-9F277ADD51A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB35435B-3576-A446-BD50-1CEBC991393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1282,6 +1282,11 @@
       <c r="C7" s="13" t="str">
         <f>'from server'!$BV$2</f>
         <v>イベント返答プロトコル</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2193,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CE13" sqref="CE13"/>
+    <sheetView topLeftCell="BD6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB35435B-3576-A446-BD50-1CEBC991393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF8AA8-1C42-C840-88D9-3967B3105026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short パケットID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パディング</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -368,10 +364,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>座標サイズ 1</t>
     <rPh sb="0" eb="2">
       <t>ザヒョウ</t>
@@ -511,6 +503,16 @@
     <t>int アイテム数</t>
     <rPh sb="8" eb="9">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックインベントリ-プレイヤーインベントリ間でアイテムを移すプロトコル</t>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">カン </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウツス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1133,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1145,42 +1147,42 @@
     <col min="2" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1188,22 +1190,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1215,7 +1217,7 @@
         <v>機械設置時のプロトコル</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1225,7 +1227,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1241,7 +1243,7 @@
         <v>チャンクデータプロトコル</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1283,15 +1285,20 @@
         <f>'from server'!$BV$2</f>
         <v>イベント返答プロトコル</v>
       </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="13" t="str">
+        <f>'from server'!$B$15</f>
+        <v>プレイヤーインベントリ応答プロトコル</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>49</v>
+      <c r="B8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1307,6 +1314,7 @@
     <hyperlink ref="B7" location="'from client'!B22" display="'from client'!B22" xr:uid="{0E8B99C6-0617-7E40-8382-01003727BF89}"/>
     <hyperlink ref="C7" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{A3EBFDE4-C1D9-B842-8F68-D78DA865FED4}"/>
     <hyperlink ref="F6" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{84C7406E-A115-E840-8FC1-A58D116FB63E}"/>
+    <hyperlink ref="F7" location="'from server'!B15" display="'from server'!B15" xr:uid="{145B13FB-B24A-184E-BC66-1A8FEE8A8BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1329,7 +1337,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -1337,23 +1345,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -1361,7 +1369,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1437,7 +1445,7 @@
     <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1465,7 +1473,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -1517,7 +1525,7 @@
     <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1535,7 +1543,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1694,7 +1702,7 @@
     </row>
     <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="37.5" customHeight="1">
@@ -1732,7 +1740,7 @@
     </row>
     <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1742,7 +1750,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -1760,7 +1768,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
@@ -1772,7 +1780,7 @@
     </row>
     <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1782,7 +1790,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1845,7 +1853,7 @@
     </row>
     <row r="17" spans="2:34" ht="37.5" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -1927,7 +1935,7 @@
     </row>
     <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1937,7 +1945,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="15"/>
       <c r="J19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2033,7 +2041,7 @@
     </row>
     <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:34" ht="37.5" customHeight="1">
@@ -2083,7 +2091,7 @@
     </row>
     <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2093,7 +2101,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2198,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView topLeftCell="BD6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BV11" sqref="BV11"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
@@ -2209,13 +2217,13 @@
   <sheetData>
     <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BV2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:106" ht="37.5" customHeight="1">
@@ -2348,7 +2356,7 @@
     </row>
     <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2358,7 +2366,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2376,7 +2384,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
@@ -2386,7 +2394,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
       <c r="AL4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
@@ -2396,7 +2404,7 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU4" s="9"/>
       <c r="AV4" s="9"/>
@@ -2414,7 +2422,7 @@
       <c r="BH4" s="9"/>
       <c r="BI4" s="9"/>
       <c r="BJ4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
@@ -2424,7 +2432,7 @@
       <c r="BP4" s="7"/>
       <c r="BQ4" s="15"/>
       <c r="BV4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BW4" s="7"/>
       <c r="BX4" s="7"/>
@@ -2434,7 +2442,7 @@
       <c r="CB4" s="7"/>
       <c r="CC4" s="7"/>
       <c r="CD4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CE4" s="7"/>
       <c r="CF4" s="7"/>
@@ -2444,7 +2452,7 @@
       <c r="CJ4" s="7"/>
       <c r="CK4" s="15"/>
       <c r="CL4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="CM4" s="9"/>
       <c r="CN4" s="9"/>
@@ -2465,7 +2473,7 @@
     </row>
     <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2475,7 +2483,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="15"/>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -2493,7 +2501,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AL5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
@@ -2503,7 +2511,7 @@
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AU5" s="7"/>
       <c r="AV5" s="7"/>
@@ -2556,7 +2564,7 @@
     </row>
     <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
@@ -2569,12 +2577,12 @@
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="BV6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -2643,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -2680,7 +2688,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
       <c r="BV8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BW8" s="7"/>
       <c r="BX8" s="7"/>
@@ -2690,7 +2698,7 @@
       <c r="CB8" s="7"/>
       <c r="CC8" s="7"/>
       <c r="CD8" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="CE8" s="7"/>
       <c r="CF8" s="7"/>
@@ -2700,7 +2708,7 @@
       <c r="CJ8" s="7"/>
       <c r="CK8" s="15"/>
       <c r="CL8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="CM8" s="7"/>
       <c r="CN8" s="7"/>
@@ -2730,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -2766,7 +2774,7 @@
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
       <c r="BV9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BW9" s="7"/>
       <c r="BX9" s="7"/>
@@ -2784,7 +2792,7 @@
       <c r="CJ9" s="7"/>
       <c r="CK9" s="15"/>
       <c r="CL9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM9" s="7"/>
       <c r="CN9" s="7"/>
@@ -2814,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -2878,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -2914,7 +2922,7 @@
       <c r="AK11" s="8"/>
       <c r="AL11" s="8"/>
       <c r="BV11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:106" ht="37.5" customHeight="1">
@@ -3036,7 +3044,7 @@
       <c r="AK13" s="8"/>
       <c r="AL13" s="8"/>
       <c r="BV13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BW13" s="7"/>
       <c r="BX13" s="7"/>
@@ -3046,7 +3054,7 @@
       <c r="CB13" s="7"/>
       <c r="CC13" s="7"/>
       <c r="CD13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="CE13" s="7"/>
       <c r="CF13" s="7"/>
@@ -3056,7 +3064,7 @@
       <c r="CJ13" s="7"/>
       <c r="CK13" s="15"/>
       <c r="CL13" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="CM13" s="7"/>
       <c r="CN13" s="7"/>
@@ -3114,7 +3122,7 @@
       <c r="AK14" s="8"/>
       <c r="AL14" s="8"/>
       <c r="BV14" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BW14" s="7"/>
       <c r="BX14" s="7"/>
@@ -3132,7 +3140,7 @@
       <c r="CJ14" s="7"/>
       <c r="CK14" s="15"/>
       <c r="CL14" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="CM14" s="7"/>
       <c r="CN14" s="7"/>
@@ -3153,7 +3161,7 @@
     <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3240,7 +3248,7 @@
     </row>
     <row r="17" spans="2:35" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3250,7 +3258,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="15"/>
       <c r="J17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -3268,7 +3276,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -3280,7 +3288,7 @@
     </row>
     <row r="18" spans="2:35" ht="37.5" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3298,7 +3306,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -3318,7 +3326,7 @@
     </row>
     <row r="19" spans="2:35" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3336,7 +3344,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -3356,7 +3364,7 @@
     </row>
     <row r="20" spans="2:35" ht="37.5" customHeight="1">
       <c r="B20" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -3392,7 +3400,7 @@
     </row>
     <row r="21" spans="2:35" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -3410,7 +3418,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -3430,7 +3438,7 @@
     </row>
     <row r="22" spans="2:35" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3448,7 +3456,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF8AA8-1C42-C840-88D9-3967B3105026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB76E7A-A1D6-4BBE-995C-EAD588FE9332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -507,13 +507,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックインベントリ-プレイヤーインベントリ間でアイテムを移すプロトコル</t>
-    <rPh sb="22" eb="23">
-      <t xml:space="preserve">カン </t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ウツス</t>
-    </rPh>
+    <t>ブロックインベントリ-プレイヤーインベントリアイテム移動プロトコル</t>
+    <rPh sb="26" eb="28">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short 0ならプレイヤーインベントリからブロックインベントリにアイテム移動 1ならその逆</t>
+    <rPh sb="37" eb="39">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ギャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int プレイヤーインベントリインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロック座標X</t>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロック座標Y</t>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックインベントリインデックス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,20 +1171,21 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1208,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1230,7 +1264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1253,7 +1287,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1273,7 +1307,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1293,12 +1327,16 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>68</v>
+      <c r="B8" s="13" t="str">
+        <f>'from client'!$B$26</f>
+        <v>ブロックインベントリ-プレイヤーインベントリアイテム移動プロトコル</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1315,6 +1353,7 @@
     <hyperlink ref="C7" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{A3EBFDE4-C1D9-B842-8F68-D78DA865FED4}"/>
     <hyperlink ref="F6" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{84C7406E-A115-E840-8FC1-A58D116FB63E}"/>
     <hyperlink ref="F7" location="'from server'!B15" display="'from server'!B15" xr:uid="{145B13FB-B24A-184E-BC66-1A8FEE8A8BF4}"/>
+    <hyperlink ref="B8" location="'from client'!B26" display="'from client'!B26" xr:uid="{CBBD4C72-1145-4E35-8A91-19D4F1301DFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1329,13 +1368,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1343,7 +1382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1351,7 +1390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1359,7 +1398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1367,7 +1406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1383,20 +1422,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH26"/>
+  <dimension ref="A2:AH30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1442,7 +1481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1483,7 +1522,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1522,7 +1561,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1561,7 +1600,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1596,7 +1635,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1631,7 +1670,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1666,7 +1705,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1700,12 +1739,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1738,7 +1777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1778,7 +1817,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1855,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1851,7 +1890,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
@@ -1888,7 +1927,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -1933,7 +1972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2010,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2005,7 +2044,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2039,12 +2078,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2089,7 +2128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
@@ -2127,7 +2166,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2161,8 +2200,10 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1">
-      <c r="B26" s="8"/>
+    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2195,6 +2236,167 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
+    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="3">
+        <v>16</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3">
+        <v>32</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="15"/>
+    </row>
+    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="15"/>
+    </row>
+    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2206,16 +2408,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -2226,7 +2428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2354,7 +2556,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2673,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -2562,7 +2764,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -2580,7 +2782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2646,7 +2848,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -2726,7 +2928,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -2810,7 +3012,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -2874,7 +3076,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -2925,7 +3127,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -3005,7 +3207,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3082,7 +3284,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3158,7 +3360,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>54</v>
@@ -3200,7 +3402,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -3246,7 +3448,7 @@
       </c>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="2:35" ht="37.5" customHeight="1">
+    <row r="17" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
@@ -3286,7 +3488,7 @@
       <c r="AF17" s="7"/>
       <c r="AG17" s="15"/>
     </row>
-    <row r="18" spans="2:35" ht="37.5" customHeight="1">
+    <row r="18" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
@@ -3324,7 +3526,7 @@
       <c r="AF18" s="7"/>
       <c r="AG18" s="15"/>
     </row>
-    <row r="19" spans="2:35" ht="37.5" customHeight="1">
+    <row r="19" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
@@ -3362,7 +3564,7 @@
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
     </row>
-    <row r="20" spans="2:35" ht="37.5" customHeight="1">
+    <row r="20" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -3398,7 +3600,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:35" ht="37.5" customHeight="1">
+    <row r="21" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
@@ -3436,7 +3638,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:35" ht="37.5" customHeight="1">
+    <row r="22" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
@@ -3474,7 +3676,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="2:35" ht="37.5" customHeight="1">
+    <row r="23" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3510,7 +3712,7 @@
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="2:35" ht="37.5" customHeight="1">
+    <row r="24" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3546,7 +3748,7 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
     </row>
-    <row r="25" spans="2:35" ht="37.5" customHeight="1">
+    <row r="25" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3582,7 +3784,7 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
     </row>
-    <row r="26" spans="2:35" ht="37.5" customHeight="1">
+    <row r="26" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3618,7 +3820,7 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:35" ht="37.5" customHeight="1">
+    <row r="27" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3654,7 +3856,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:35" ht="37.5" customHeight="1">
+    <row r="28" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="12"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -3690,7 +3892,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:35" ht="37.5" customHeight="1">
+    <row r="29" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -3726,7 +3928,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:35" ht="37.5" customHeight="1">
+    <row r="30" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB76E7A-A1D6-4BBE-995C-EAD588FE9332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341444FD-9487-4ADE-96AC-7EC08FB5CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -547,6 +547,16 @@
   </si>
   <si>
     <t>int ブロックインベントリインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動アイテム数</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1170,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1422,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH30"/>
+  <dimension ref="A2:AH31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2397,6 +2407,26 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
+    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2408,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341444FD-9487-4ADE-96AC-7EC08FB5CF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA092BC-06D8-42BB-B386-6248E1B0A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -557,6 +557,28 @@
     <rPh sb="10" eb="11">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックインベントリ更新イベント</t>
+    <rPh sb="10" eb="12">
+      <t>コウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short イベントID  2</t>
+    <rPh sb="13" eb="14">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int ブロックY</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1375,7 +1397,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1434,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
   <dimension ref="A2:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2438,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="AJ11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CL21" sqref="CL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3477,8 +3499,11 @@
         <v>64</v>
       </c>
       <c r="AI16" s="8"/>
-    </row>
-    <row r="17" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
@@ -3517,8 +3542,48 @@
       <c r="AE17" s="7"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="15"/>
-    </row>
-    <row r="18" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="1"/>
+      <c r="BX17" s="1"/>
+      <c r="BY17" s="1"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="3">
+        <v>16</v>
+      </c>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="2"/>
+      <c r="CL17" s="5">
+        <v>32</v>
+      </c>
+      <c r="CM17" s="8"/>
+      <c r="CN17" s="8"/>
+      <c r="CO17" s="8"/>
+      <c r="CP17" s="8"/>
+      <c r="CQ17" s="8"/>
+      <c r="CR17" s="8"/>
+      <c r="CS17" s="4"/>
+      <c r="CT17" s="5">
+        <v>48</v>
+      </c>
+      <c r="CU17" s="8"/>
+      <c r="CV17" s="8"/>
+      <c r="CW17" s="8"/>
+      <c r="CX17" s="8"/>
+      <c r="CY17" s="8"/>
+      <c r="CZ17" s="8"/>
+      <c r="DA17" s="4"/>
+    </row>
+    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
@@ -3555,8 +3620,46 @@
       <c r="AE18" s="7"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="15"/>
-    </row>
-    <row r="19" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+      <c r="BY18" s="7"/>
+      <c r="BZ18" s="7"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="15"/>
+      <c r="CL18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="CM18" s="7"/>
+      <c r="CN18" s="7"/>
+      <c r="CO18" s="7"/>
+      <c r="CP18" s="7"/>
+      <c r="CQ18" s="7"/>
+      <c r="CR18" s="7"/>
+      <c r="CS18" s="7"/>
+      <c r="CT18" s="7"/>
+      <c r="CU18" s="7"/>
+      <c r="CV18" s="7"/>
+      <c r="CW18" s="7"/>
+      <c r="CX18" s="7"/>
+      <c r="CY18" s="7"/>
+      <c r="CZ18" s="7"/>
+      <c r="DA18" s="15"/>
+    </row>
+    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
@@ -3593,8 +3696,44 @@
       <c r="AE19" s="7"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="15"/>
-    </row>
-    <row r="20" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+      <c r="BY19" s="7"/>
+      <c r="BZ19" s="7"/>
+      <c r="CA19" s="7"/>
+      <c r="CB19" s="7"/>
+      <c r="CC19" s="7"/>
+      <c r="CD19" s="7"/>
+      <c r="CE19" s="7"/>
+      <c r="CF19" s="7"/>
+      <c r="CG19" s="7"/>
+      <c r="CH19" s="7"/>
+      <c r="CI19" s="7"/>
+      <c r="CJ19" s="7"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="CM19" s="7"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="7"/>
+      <c r="CQ19" s="7"/>
+      <c r="CR19" s="7"/>
+      <c r="CS19" s="7"/>
+      <c r="CT19" s="7"/>
+      <c r="CU19" s="7"/>
+      <c r="CV19" s="7"/>
+      <c r="CW19" s="7"/>
+      <c r="CX19" s="7"/>
+      <c r="CY19" s="7"/>
+      <c r="CZ19" s="7"/>
+      <c r="DA19" s="15"/>
+    </row>
+    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -3629,8 +3768,44 @@
       <c r="AE20" s="8"/>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
-    </row>
-    <row r="21" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BV20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW20" s="7"/>
+      <c r="BX20" s="7"/>
+      <c r="BY20" s="7"/>
+      <c r="BZ20" s="7"/>
+      <c r="CA20" s="7"/>
+      <c r="CB20" s="7"/>
+      <c r="CC20" s="7"/>
+      <c r="CD20" s="7"/>
+      <c r="CE20" s="7"/>
+      <c r="CF20" s="7"/>
+      <c r="CG20" s="7"/>
+      <c r="CH20" s="7"/>
+      <c r="CI20" s="7"/>
+      <c r="CJ20" s="7"/>
+      <c r="CK20" s="15"/>
+      <c r="CL20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM20" s="7"/>
+      <c r="CN20" s="7"/>
+      <c r="CO20" s="7"/>
+      <c r="CP20" s="7"/>
+      <c r="CQ20" s="7"/>
+      <c r="CR20" s="7"/>
+      <c r="CS20" s="7"/>
+      <c r="CT20" s="7"/>
+      <c r="CU20" s="7"/>
+      <c r="CV20" s="7"/>
+      <c r="CW20" s="7"/>
+      <c r="CX20" s="7"/>
+      <c r="CY20" s="7"/>
+      <c r="CZ20" s="7"/>
+      <c r="DA20" s="15"/>
+    </row>
+    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
@@ -3668,7 +3843,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
@@ -3706,7 +3881,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3742,7 +3917,7 @@
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3778,7 +3953,7 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
     </row>
-    <row r="25" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3814,7 +3989,7 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
     </row>
-    <row r="26" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -3850,7 +4025,7 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -3886,7 +4061,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="12"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -3922,7 +4097,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -3958,7 +4133,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satou_katsumi\RiderProjects\moorestech\Server\Protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA092BC-06D8-42BB-B386-6248E1B0A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC51FAD-CE3F-DD40-845F-0C28835AC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -546,10 +546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int ブロックインベントリインデックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int 移動アイテム数</t>
     <rPh sb="4" eb="6">
       <t>イドウ</t>
@@ -579,6 +575,38 @@
   </si>
   <si>
     <t>int ブロックY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーインベントリ内アイテム移動プロトコル</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">プレイヤーインベントリナイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int プレイヤーインベントリスロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動元プレイヤーインベントリスロット</t>
+    <rPh sb="4" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動先プレイヤーインベントリスロット</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">サキ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -586,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,24 +1228,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="44.375" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1274,7 +1302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1296,7 +1324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1319,7 +1347,7 @@
         <v>プレイヤー座標プロトコル</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1339,7 +1367,7 @@
         <v>イベント返答プロトコル</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1359,7 +1387,7 @@
         <v>プレイヤーインベントリ応答プロトコル</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1369,6 +1397,15 @@
       </c>
       <c r="C8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>'from client'!$B$33</f>
+        <v>プレイヤーインベントリ内アイテム移動プロトコル</v>
       </c>
     </row>
   </sheetData>
@@ -1386,6 +1423,7 @@
     <hyperlink ref="F6" location="'from server'!BV2" display="'from server'!BV2" xr:uid="{84C7406E-A115-E840-8FC1-A58D116FB63E}"/>
     <hyperlink ref="F7" location="'from server'!B15" display="'from server'!B15" xr:uid="{145B13FB-B24A-184E-BC66-1A8FEE8A8BF4}"/>
     <hyperlink ref="B8" location="'from client'!B26" display="'from client'!B26" xr:uid="{CBBD4C72-1145-4E35-8A91-19D4F1301DFC}"/>
+    <hyperlink ref="B9" location="'from client'!B33" display="'from client'!B33" xr:uid="{D1DDCF5F-D032-9941-B0DE-183876C26C81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1400,13 +1438,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1414,7 +1452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1460,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1430,7 +1468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1438,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1454,20 +1492,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH31"/>
+  <dimension ref="A2:AH38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="37.5" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -1513,7 +1558,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" ht="37.5" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1554,7 +1599,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="11"/>
     </row>
-    <row r="5" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="37.5" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
@@ -1593,7 +1638,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="11"/>
     </row>
-    <row r="6" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="37.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>16</v>
@@ -1632,7 +1677,7 @@
       <c r="AF6" s="7"/>
       <c r="AG6" s="15"/>
     </row>
-    <row r="7" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" ht="37.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1667,7 +1712,7 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="37.5" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1702,7 +1747,7 @@
       <c r="AF8" s="8"/>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="37.5" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1737,7 +1782,7 @@
       <c r="AF9" s="8"/>
       <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="37.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1771,12 +1816,12 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
     </row>
-    <row r="12" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="37.5" customHeight="1">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="37.5" customHeight="1">
       <c r="B13" s="3">
         <v>0</v>
       </c>
@@ -1809,7 +1854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="37.5" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1849,7 +1894,7 @@
       <c r="AF14" s="7"/>
       <c r="AG14" s="15"/>
     </row>
-    <row r="15" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="37.5" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1887,7 +1932,7 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="37.5" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1922,7 +1967,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:34" ht="37.5" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>51</v>
       </c>
@@ -1959,7 +2004,7 @@
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
     </row>
-    <row r="18" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:34" ht="37.5" customHeight="1">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -2004,7 +2049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:34" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2087,7 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:34" ht="37.5" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2076,7 +2121,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
     </row>
-    <row r="21" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:34" ht="37.5" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2110,12 +2155,12 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
     </row>
-    <row r="22" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:34" ht="37.5" customHeight="1">
       <c r="B22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:34" ht="37.5" customHeight="1">
       <c r="B23" s="3">
         <v>0</v>
       </c>
@@ -2160,7 +2205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:34" ht="37.5" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
@@ -2198,7 +2243,7 @@
       <c r="AF24" s="9"/>
       <c r="AG24" s="9"/>
     </row>
-    <row r="25" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:34" ht="37.5" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2232,7 +2277,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
     </row>
-    <row r="26" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:34" ht="37.5" customHeight="1">
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -2268,7 +2313,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
     </row>
-    <row r="27" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:34" ht="37.5" customHeight="1">
       <c r="B27" s="3">
         <v>0</v>
       </c>
@@ -2313,7 +2358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:34" ht="37.5" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>69</v>
       </c>
@@ -2353,7 +2398,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="15"/>
     </row>
-    <row r="29" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:34" ht="37.5" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>71</v>
       </c>
@@ -2391,7 +2436,7 @@
       <c r="AF29" s="7"/>
       <c r="AG29" s="15"/>
     </row>
-    <row r="30" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:34" ht="37.5" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
@@ -2411,7 +2456,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2429,9 +2474,9 @@
       <c r="AF30" s="7"/>
       <c r="AG30" s="15"/>
     </row>
-    <row r="31" spans="2:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:34" ht="37.5" customHeight="1">
       <c r="B31" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2449,6 +2494,190 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="15"/>
     </row>
+    <row r="33" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="3">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3">
+        <v>32</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="15"/>
+    </row>
+    <row r="36" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="15"/>
+    </row>
+    <row r="37" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+    </row>
+    <row r="38" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2460,16 +2689,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3832A852-E5A4-4B52-9E00-16CCD46A37C5}">
   <dimension ref="A2:DB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="CL21" sqref="CL21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
     <col min="34" max="34" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:106" ht="37.5" customHeight="1">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -2480,7 +2709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:106" ht="37.5" customHeight="1">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2608,7 +2837,7 @@
       <c r="CZ3" s="8"/>
       <c r="DA3" s="4"/>
     </row>
-    <row r="4" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:106" ht="37.5" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2725,7 +2954,7 @@
       <c r="DA4" s="9"/>
       <c r="DB4" s="8"/>
     </row>
-    <row r="5" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:106" ht="37.5" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
@@ -2816,7 +3045,7 @@
       <c r="DA5" s="8"/>
       <c r="DB5" s="8"/>
     </row>
-    <row r="6" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:106" ht="37.5" customHeight="1">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -2834,7 +3063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:106" ht="37.5" customHeight="1">
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2900,7 +3129,7 @@
       <c r="CZ7" s="8"/>
       <c r="DA7" s="4"/>
     </row>
-    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="B8" s="8">
         <v>0</v>
       </c>
@@ -2980,7 +3209,7 @@
       <c r="CZ8" s="7"/>
       <c r="DA8" s="15"/>
     </row>
-    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>1</v>
@@ -3064,7 +3293,7 @@
       <c r="CZ9" s="7"/>
       <c r="DA9" s="15"/>
     </row>
-    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>1</v>
@@ -3128,7 +3357,7 @@
       <c r="CJ10" s="9"/>
       <c r="CK10" s="9"/>
     </row>
-    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" ht="37.5" customHeight="1" thickBot="1">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>1</v>
@@ -3179,7 +3408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:106" ht="37.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="8"/>
@@ -3259,7 +3488,7 @@
       <c r="CZ12" s="8"/>
       <c r="DA12" s="4"/>
     </row>
-    <row r="13" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:106" ht="37.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3336,7 +3565,7 @@
       <c r="CZ13" s="7"/>
       <c r="DA13" s="15"/>
     </row>
-    <row r="14" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:106" ht="37.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3412,7 +3641,7 @@
       <c r="CZ14" s="7"/>
       <c r="DA14" s="15"/>
     </row>
-    <row r="15" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:106" ht="37.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>54</v>
@@ -3454,7 +3683,7 @@
       <c r="AK15" s="8"/>
       <c r="AL15" s="8"/>
     </row>
-    <row r="16" spans="1:106" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:106" ht="37.5" customHeight="1">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -3500,10 +3729,10 @@
       </c>
       <c r="AI16" s="8"/>
       <c r="BV16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:105" ht="37.5" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
@@ -3583,7 +3812,7 @@
       <c r="CZ17" s="8"/>
       <c r="DA17" s="4"/>
     </row>
-    <row r="18" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:105" ht="37.5" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>55</v>
       </c>
@@ -3631,7 +3860,7 @@
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CE18" s="7"/>
       <c r="CF18" s="7"/>
@@ -3659,7 +3888,7 @@
       <c r="CZ18" s="7"/>
       <c r="DA18" s="15"/>
     </row>
-    <row r="19" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:105" ht="37.5" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>57</v>
       </c>
@@ -3733,7 +3962,7 @@
       <c r="CZ19" s="7"/>
       <c r="DA19" s="15"/>
     </row>
-    <row r="20" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:105" ht="37.5" customHeight="1">
       <c r="B20" s="17" t="s">
         <v>12</v>
       </c>
@@ -3769,7 +3998,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="BV20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BW20" s="7"/>
       <c r="BX20" s="7"/>
@@ -3787,7 +4016,7 @@
       <c r="CJ20" s="7"/>
       <c r="CK20" s="15"/>
       <c r="CL20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CM20" s="7"/>
       <c r="CN20" s="7"/>
@@ -3805,7 +4034,7 @@
       <c r="CZ20" s="7"/>
       <c r="DA20" s="15"/>
     </row>
-    <row r="21" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:105" ht="37.5" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
@@ -3843,7 +4072,7 @@
       <c r="AF21" s="7"/>
       <c r="AG21" s="15"/>
     </row>
-    <row r="22" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:105" ht="37.5" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>60</v>
       </c>
@@ -3881,7 +4110,7 @@
       <c r="AF22" s="7"/>
       <c r="AG22" s="15"/>
     </row>
-    <row r="23" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:105" ht="37.5" customHeight="1">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3917,7 +4146,7 @@
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
     </row>
-    <row r="24" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:105" ht="37.5" customHeight="1">
       <c r="B24" s="12"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -3953,7 +4182,7 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
     </row>
-    <row r="25" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:105" ht="37.5" customHeight="1">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -3989,7 +4218,7 @@
       <c r="AH25" s="8"/>
       <c r="AI25" s="8"/>
     </row>
-    <row r="26" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:105" ht="37.5" customHeight="1">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -4025,7 +4254,7 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
     </row>
-    <row r="27" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:105" ht="37.5" customHeight="1">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -4061,7 +4290,7 @@
       <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
     </row>
-    <row r="28" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:105" ht="37.5" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4097,7 +4326,7 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
     </row>
-    <row r="29" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:105" ht="37.5" customHeight="1">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -4133,7 +4362,7 @@
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
     </row>
-    <row r="30" spans="2:105" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:105" ht="37.5" customHeight="1">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>

--- a/Server/Protocol/プロトコル設計.xlsx
+++ b/Server/Protocol/プロトコル設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sato-katsumi/RiderProjects/moorestech/Server/Protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC51FAD-CE3F-DD40-845F-0C28835AC1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4089E7A7-4714-6E4A-98B8-26683924F2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15580" xr2:uid="{11C14497-1364-47AF-A10E-8F64022A8919}"/>
   </bookViews>
   <sheets>
     <sheet name="プロトコル一覧" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>機械設置時のプロトコル</t>
     <rPh sb="0" eb="2">
@@ -601,6 +601,37 @@
   </si>
   <si>
     <t>int 移動先プレイヤーインベントリスロット</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">サキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>short パケットID 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未実装 ブロックインベントリ内アイテム移動プロトコル</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動元ブロックインベントリスロット</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int 移動先ブロックインベントリスロット</t>
     <rPh sb="4" eb="6">
       <t>イドウ</t>
     </rPh>
@@ -663,7 +694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -834,6 +865,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -843,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +957,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F950C00-BA4C-4B44-ABCF-5BDA265C29A2}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1407,6 +1456,21 @@
         <f>'from client'!$B$33</f>
         <v>プレイヤーインベントリ内アイテム移動プロトコル</v>
       </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f>'from client'!$B$39</f>
+        <v>未実装 ブロックインベントリ内アイテム移動プロトコル</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1424,6 +1488,7 @@
     <hyperlink ref="F7" location="'from server'!B15" display="'from server'!B15" xr:uid="{145B13FB-B24A-184E-BC66-1A8FEE8A8BF4}"/>
     <hyperlink ref="B8" location="'from client'!B26" display="'from client'!B26" xr:uid="{CBBD4C72-1145-4E35-8A91-19D4F1301DFC}"/>
     <hyperlink ref="B9" location="'from client'!B33" display="'from client'!B33" xr:uid="{D1DDCF5F-D032-9941-B0DE-183876C26C81}"/>
+    <hyperlink ref="B10" location="'from client'!B39" display="'from client'!B39" xr:uid="{5A8838B1-1247-1745-A447-957E2DBF349D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1492,19 +1557,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACC4752-47DF-47C5-86A0-76E566178489}">
-  <dimension ref="A2:AH38"/>
+  <dimension ref="A2:AH43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="37.5" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" customWidth="1"/>
     <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" customWidth="1"/>
+    <col min="26" max="26" width="2.83203125" customWidth="1"/>
+    <col min="34" max="34" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="37.5" customHeight="1">
@@ -2677,6 +2742,174 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="3">
+        <v>16</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="3">
+        <v>32</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="3">
+        <v>48</v>
+      </c>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="15"/>
+    </row>
+    <row r="42" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="15"/>
+    </row>
+    <row r="43" spans="2:34" ht="37.5" customHeight="1">
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
